--- a/0_Resources/Problems/2_Formulas_and_Functions_Solution.xlsx
+++ b/0_Resources/Problems/2_Formulas_and_Functions_Solution.xlsx
@@ -8,21 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SaderPC\Documents\GitHub\Excel_Data_Analytics_Course\0_Resources\Problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F43E164C-4D31-4D3E-97C9-59809A25AB09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01C7F28-5EE3-4028-925C-8F335C24BE02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{63EF8451-8C6D-4426-BE1B-F4EED8941AE0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{63EF8451-8C6D-4426-BE1B-F4EED8941AE0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="2" r:id="rId1"/>
-    <sheet name="1_Formulas_Intro" sheetId="1" r:id="rId2"/>
-    <sheet name="2_Functions_Intro" sheetId="3" r:id="rId3"/>
+    <sheet name="1_Formulas_Intro" sheetId="1" r:id="rId1"/>
+    <sheet name="2_Functions_Intro" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="21">
   <si>
     <t>Job Title</t>
   </si>
@@ -69,13 +81,22 @@
     <t>2.1.6 - High Stock Options</t>
   </si>
   <si>
-    <t>2.2.3 Problem</t>
-  </si>
-  <si>
-    <t>2.1.7 Problem</t>
-  </si>
-  <si>
     <t>2.2.1 - Average Salary</t>
+  </si>
+  <si>
+    <t>2.1.3 - Total Compensation</t>
+  </si>
+  <si>
+    <t>2.1.10 - Problem</t>
+  </si>
+  <si>
+    <t>2.2.3 - Problem</t>
+  </si>
+  <si>
+    <t>2.2.5 - Problem</t>
+  </si>
+  <si>
+    <t>2.1.7 - Problem</t>
   </si>
 </sst>
 </file>
@@ -584,7 +605,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -595,6 +616,10 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="8" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -969,42 +994,64 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D81121F-E29F-4A0D-9A89-C1FE1C9EC139}">
-  <dimension ref="A1:H11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40322099-8982-4B34-B228-66F1BE7B0672}">
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.140625" customWidth="1"/>
+    <col min="11" max="11" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1029,8 +1076,28 @@
       <c r="H2" s="3">
         <v>131.21</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="8">
+        <f>G2*H2</f>
+        <v>5379.6100000000006</v>
+      </c>
+      <c r="J2" s="11">
+        <f>D2+E2+(D2*F2/100)</f>
+        <v>159040.4865</v>
+      </c>
+      <c r="K2" s="9" t="b">
+        <f>B2&gt;=3</f>
+        <v>1</v>
+      </c>
+      <c r="L2" s="9" t="b">
+        <f>(G2*H2)&gt;5000</f>
+        <v>1</v>
+      </c>
+      <c r="M2" s="9" t="b">
+        <f>AND(B2&gt;=5,J2&gt;=100000)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1055,8 +1122,28 @@
       <c r="H3" s="3">
         <v>168.6</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="8">
+        <f t="shared" ref="I3:I11" si="0">G3*H3</f>
+        <v>5901</v>
+      </c>
+      <c r="J3" s="11">
+        <f t="shared" ref="J3:J11" si="1">D3+E3+(D3*F3/100)</f>
+        <v>203569.23800000001</v>
+      </c>
+      <c r="K3" s="9" t="b">
+        <f t="shared" ref="K3:K11" si="2">B3&gt;=3</f>
+        <v>1</v>
+      </c>
+      <c r="L3" s="9" t="b">
+        <f t="shared" ref="L3:L11" si="3">(G3*H3)&gt;5000</f>
+        <v>1</v>
+      </c>
+      <c r="M3" s="9" t="b">
+        <f t="shared" ref="M3:M11" si="4">AND(B3&gt;=5,J3&gt;=100000)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1081,8 +1168,28 @@
       <c r="H4" s="3">
         <v>257.32</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="8">
+        <f t="shared" si="0"/>
+        <v>11322.08</v>
+      </c>
+      <c r="J4" s="11">
+        <f t="shared" si="1"/>
+        <v>140904.33025</v>
+      </c>
+      <c r="K4" s="9" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L4" s="9" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M4" s="9" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1107,8 +1214,28 @@
       <c r="H5" s="3">
         <v>137.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="8">
+        <f t="shared" si="0"/>
+        <v>2887.5</v>
+      </c>
+      <c r="J5" s="11">
+        <f t="shared" si="1"/>
+        <v>197545.58919999999</v>
+      </c>
+      <c r="K5" s="9" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="9" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M5" s="9" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1133,8 +1260,28 @@
       <c r="H6" s="3">
         <v>100.75</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="8">
+        <f t="shared" si="0"/>
+        <v>4030</v>
+      </c>
+      <c r="J6" s="11">
+        <f t="shared" si="1"/>
+        <v>130306.5048</v>
+      </c>
+      <c r="K6" s="9" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L6" s="9" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="9" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1159,8 +1306,28 @@
       <c r="H7" s="3">
         <v>90.8</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="8">
+        <f t="shared" si="0"/>
+        <v>544.79999999999995</v>
+      </c>
+      <c r="J7" s="11">
+        <f t="shared" si="1"/>
+        <v>129072.659</v>
+      </c>
+      <c r="K7" s="9" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L7" s="9" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="9" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1185,8 +1352,28 @@
       <c r="H8" s="3">
         <v>237.21</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="8">
+        <f t="shared" si="0"/>
+        <v>7116.3</v>
+      </c>
+      <c r="J8" s="11">
+        <f t="shared" si="1"/>
+        <v>138231.3891</v>
+      </c>
+      <c r="K8" s="9" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="9" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M8" s="9" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1398,28 @@
       <c r="H9" s="3">
         <v>116.02</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="8">
+        <f t="shared" si="0"/>
+        <v>5684.98</v>
+      </c>
+      <c r="J9" s="11">
+        <f t="shared" si="1"/>
+        <v>206186.44380000001</v>
+      </c>
+      <c r="K9" s="9" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L9" s="9" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M9" s="9" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1237,8 +1444,28 @@
       <c r="H10" s="3">
         <v>200.01</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="8">
+        <f t="shared" si="0"/>
+        <v>7000.3499999999995</v>
+      </c>
+      <c r="J10" s="11">
+        <f t="shared" si="1"/>
+        <v>108519.7485</v>
+      </c>
+      <c r="K10" s="9" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L10" s="9" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M10" s="9" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1262,6 +1489,26 @@
       </c>
       <c r="H11" s="3">
         <v>274.58</v>
+      </c>
+      <c r="I11" s="8">
+        <f t="shared" si="0"/>
+        <v>5217.0199999999995</v>
+      </c>
+      <c r="J11" s="11">
+        <f t="shared" si="1"/>
+        <v>161281.8144</v>
+      </c>
+      <c r="K11" s="9" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L11" s="9" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M11" s="9" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1270,456 +1517,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40322099-8982-4B34-B228-66F1BE7B0672}">
-  <dimension ref="A1:K11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="9" max="9" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2">
-        <v>5</v>
-      </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
-        <v>134973</v>
-      </c>
-      <c r="E2" s="1">
-        <v>24000</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="G2">
-        <v>41</v>
-      </c>
-      <c r="H2" s="3">
-        <v>131.21</v>
-      </c>
-      <c r="I2" s="8">
-        <f>G2*H2</f>
-        <v>5379.6100000000006</v>
-      </c>
-      <c r="J2" s="9" t="b">
-        <f>B2&gt;=3</f>
-        <v>1</v>
-      </c>
-      <c r="K2" s="9" t="b">
-        <f>(G2*H2)&gt;5000</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>9</v>
-      </c>
-      <c r="C3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>186476</v>
-      </c>
-      <c r="E3" s="1">
-        <v>17000</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="G3">
-        <v>35</v>
-      </c>
-      <c r="H3" s="3">
-        <v>168.6</v>
-      </c>
-      <c r="I3" s="8">
-        <f t="shared" ref="I3:I11" si="0">G3*H3</f>
-        <v>5901</v>
-      </c>
-      <c r="J3" s="9" t="b">
-        <f t="shared" ref="J3:J11" si="1">B3&gt;=3</f>
-        <v>1</v>
-      </c>
-      <c r="K3" s="9" t="b">
-        <f t="shared" ref="K3:K11" si="2">(G3*H3)&gt;5000</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
-      <c r="C4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>131845</v>
-      </c>
-      <c r="E4" s="1">
-        <v>9000</v>
-      </c>
-      <c r="F4" s="2">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="G4">
-        <v>44</v>
-      </c>
-      <c r="H4" s="3">
-        <v>257.32</v>
-      </c>
-      <c r="I4" s="8">
-        <f t="shared" si="0"/>
-        <v>11322.08</v>
-      </c>
-      <c r="J4" s="9" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K4" s="9" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
-        <v>181473</v>
-      </c>
-      <c r="E5" s="1">
-        <v>16000</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0.04</v>
-      </c>
-      <c r="G5">
-        <v>21</v>
-      </c>
-      <c r="H5" s="3">
-        <v>137.5</v>
-      </c>
-      <c r="I5" s="8">
-        <f t="shared" si="0"/>
-        <v>2887.5</v>
-      </c>
-      <c r="J5" s="9" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K5" s="9" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>9</v>
-      </c>
-      <c r="C6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
-        <v>111262</v>
-      </c>
-      <c r="E6" s="1">
-        <v>19000</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0.04</v>
-      </c>
-      <c r="G6">
-        <v>40</v>
-      </c>
-      <c r="H6" s="3">
-        <v>100.75</v>
-      </c>
-      <c r="I6" s="8">
-        <f t="shared" si="0"/>
-        <v>4030</v>
-      </c>
-      <c r="J6" s="9" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K6" s="9" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1">
-        <v>117020</v>
-      </c>
-      <c r="E7" s="1">
-        <v>12000</v>
-      </c>
-      <c r="F7" s="2">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="G7">
-        <v>6</v>
-      </c>
-      <c r="H7" s="3">
-        <v>90.8</v>
-      </c>
-      <c r="I7" s="8">
-        <f t="shared" si="0"/>
-        <v>544.79999999999995</v>
-      </c>
-      <c r="J7" s="9" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K7" s="9" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
-        <v>126162</v>
-      </c>
-      <c r="E8" s="1">
-        <v>12000</v>
-      </c>
-      <c r="F8" s="2">
-        <v>5.5E-2</v>
-      </c>
-      <c r="G8">
-        <v>30</v>
-      </c>
-      <c r="H8" s="3">
-        <v>237.21</v>
-      </c>
-      <c r="I8" s="8">
-        <f t="shared" si="0"/>
-        <v>7116.3</v>
-      </c>
-      <c r="J8" s="9" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="9" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>7</v>
-      </c>
-      <c r="C9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1">
-        <v>189073</v>
-      </c>
-      <c r="E9" s="1">
-        <v>17000</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0.06</v>
-      </c>
-      <c r="G9">
-        <v>49</v>
-      </c>
-      <c r="H9" s="3">
-        <v>116.02</v>
-      </c>
-      <c r="I9" s="8">
-        <f t="shared" si="0"/>
-        <v>5684.98</v>
-      </c>
-      <c r="J9" s="9" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K9" s="9" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>10</v>
-      </c>
-      <c r="C10" t="b">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1">
-        <v>82495</v>
-      </c>
-      <c r="E10" s="1">
-        <v>26000</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="G10">
-        <v>35</v>
-      </c>
-      <c r="H10" s="3">
-        <v>200.01</v>
-      </c>
-      <c r="I10" s="8">
-        <f t="shared" si="0"/>
-        <v>7000.3499999999995</v>
-      </c>
-      <c r="J10" s="9" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K10" s="9" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11">
-        <v>5</v>
-      </c>
-      <c r="C11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1">
-        <v>134208</v>
-      </c>
-      <c r="E11" s="1">
-        <v>27000</v>
-      </c>
-      <c r="F11" s="2">
-        <v>5.5E-2</v>
-      </c>
-      <c r="G11">
-        <v>19</v>
-      </c>
-      <c r="H11" s="3">
-        <v>274.58</v>
-      </c>
-      <c r="I11" s="8">
-        <f t="shared" si="0"/>
-        <v>5217.0199999999995</v>
-      </c>
-      <c r="J11" s="9" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K11" s="9" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C165C161-A451-4687-91F4-38842B6C7924}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="9" max="9" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.28515625" customWidth="1"/>
+    <col min="12" max="12" width="24.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1745,16 +1558,19 @@
         <v>7</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1787,12 +1603,16 @@
         <f>AND(B2&lt;5,D2&gt;90000)</f>
         <v>0</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="12">
+        <f>MAX(H2:H11)</f>
+        <v>274.58</v>
+      </c>
+      <c r="L2" s="9">
         <f>COUNTIF(E2:E11,"&gt;15000")</f>
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1822,8 +1642,9 @@
         <f t="shared" ref="J3:J11" si="0">AND(B3&lt;5,D3&gt;90000)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K3" s="13"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1853,8 +1674,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K4" s="13"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1884,8 +1706,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K5" s="13"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1915,8 +1738,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K6" s="13"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1946,8 +1770,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K7" s="13"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1977,8 +1802,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K8" s="13"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -2008,8 +1834,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K9" s="13"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2039,8 +1866,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K10" s="13"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -2070,6 +1898,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="K11" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
